--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_32_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_24</t>
+          <t>model_32_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9945120188081652</v>
+        <v>0.9892204919403406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7939415741016246</v>
+        <v>0.7640072434665054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8439774317467141</v>
+        <v>0.9701410543429462</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9960156149527155</v>
+        <v>0.9853319768134178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9691928536728028</v>
+        <v>0.982560237394448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0366981554996295</v>
+        <v>0.07208262003001359</v>
       </c>
       <c r="H2" t="n">
-        <v>1.377913642794244</v>
+        <v>1.578084649586205</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2072591172015943</v>
+        <v>0.1239039637272079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02198157310626899</v>
+        <v>0.09485891074703931</v>
       </c>
       <c r="K2" t="n">
-        <v>0.114620347972561</v>
+        <v>0.1093814372371236</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09471309108536165</v>
+        <v>0.1751634619466265</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1915676264394104</v>
+        <v>0.268482066496095</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002026331516985</v>
+        <v>1.003980126052797</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1997230568965912</v>
+        <v>0.2799119039013292</v>
       </c>
       <c r="P2" t="n">
-        <v>184.6100575681006</v>
+        <v>183.2598846348492</v>
       </c>
       <c r="Q2" t="n">
-        <v>293.0900059813704</v>
+        <v>291.739833048119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_23</t>
+          <t>model_32_9_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945292549685472</v>
+        <v>0.9887003840197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7938922993869877</v>
+        <v>0.7639859997467724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8445034183328233</v>
+        <v>0.9693567640928177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9960247669304314</v>
+        <v>0.9908884006744099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9692935394606653</v>
+        <v>0.9851654190489997</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03658289721578986</v>
+        <v>0.07556058409021391</v>
       </c>
       <c r="H3" t="n">
-        <v>1.378243143037911</v>
+        <v>1.578226706437877</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2065604008766594</v>
+        <v>0.127158488244572</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02193108228652126</v>
+        <v>0.05892521277029211</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1142457387855198</v>
+        <v>0.09304185050743206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09535542795377601</v>
+        <v>0.1755336642871216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.191266560631465</v>
+        <v>0.2748828552132961</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002019967396229</v>
+        <v>1.004172165900419</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1994091740939094</v>
+        <v>0.2865851874456807</v>
       </c>
       <c r="P3" t="n">
-        <v>184.616348873949</v>
+        <v>183.1656410124553</v>
       </c>
       <c r="Q3" t="n">
-        <v>293.0962972872188</v>
+        <v>291.6455894257251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_22</t>
+          <t>model_32_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9945482552748396</v>
+        <v>0.989333641502452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7938375028770646</v>
+        <v>0.7636718761366049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8450861853270253</v>
+        <v>0.9702176438807893</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9960348402152103</v>
+        <v>0.979200279164351</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9694050432143957</v>
+        <v>0.9794243621246019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03645584208012403</v>
+        <v>0.0713259883871684</v>
       </c>
       <c r="H4" t="n">
-        <v>1.378609567552081</v>
+        <v>1.580327252465474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2057862579170558</v>
+        <v>0.1235861444904606</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02187550868026598</v>
+        <v>0.1345129358751644</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1138308805277285</v>
+        <v>0.1290495113829796</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09606954395389496</v>
+        <v>0.1750681984870739</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1909341302128146</v>
+        <v>0.2670692576601965</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002012951898521</v>
+        <v>1.003938347752941</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1990625914241112</v>
+        <v>0.278438948868369</v>
       </c>
       <c r="P4" t="n">
-        <v>184.6233071136475</v>
+        <v>183.2809890489297</v>
       </c>
       <c r="Q4" t="n">
-        <v>293.1032555269173</v>
+        <v>291.7609374621995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_21</t>
+          <t>model_32_9_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9945692220788552</v>
+        <v>0.9876361391989887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7937764065788815</v>
+        <v>0.7634771403001785</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8457321858576708</v>
+        <v>0.9676216127750062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9960460821733843</v>
+        <v>0.9955152135280355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9695287018585382</v>
+        <v>0.9869767877935777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03631563696512773</v>
+        <v>0.08267719410670653</v>
       </c>
       <c r="H5" t="n">
-        <v>1.379018118779354</v>
+        <v>1.581629451900333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2049281160392987</v>
+        <v>0.1343587467001996</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02181348758478274</v>
+        <v>0.02900336018372027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1133707990690016</v>
+        <v>0.08168102403693467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09686176100171093</v>
+        <v>0.1765276389299197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.190566620805239</v>
+        <v>0.2875364222263095</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002005210309346</v>
+        <v>1.00456511783422</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1986794363802057</v>
+        <v>0.2997774430029329</v>
       </c>
       <c r="P5" t="n">
-        <v>184.6310137201541</v>
+        <v>182.9856229630567</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.110962133424</v>
+        <v>291.4655713763265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_20</t>
+          <t>model_32_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.994592336824868</v>
+        <v>0.9891476080634118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7937083463881907</v>
+        <v>0.7630822097125871</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8464486284611984</v>
+        <v>0.9697767800045846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960584979621545</v>
+        <v>0.9727631904982343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9696658050215923</v>
+        <v>0.9759598539632607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03616106855210701</v>
+        <v>0.07256999485063516</v>
       </c>
       <c r="H6" t="n">
-        <v>1.379473237587892</v>
+        <v>1.584270354558045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2039763994819115</v>
+        <v>0.1254155721719772</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0217449905481546</v>
+        <v>0.1761419414666278</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1128606962477115</v>
+        <v>0.1507787568193025</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09774119777446297</v>
+        <v>0.1749971133806489</v>
       </c>
       <c r="M6" t="n">
-        <v>0.190160638808632</v>
+        <v>0.2693881861749605</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001996675633895</v>
+        <v>1.00400703702274</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1982561708895047</v>
+        <v>0.2808565989708502</v>
       </c>
       <c r="P6" t="n">
-        <v>184.6395443864562</v>
+        <v>183.2464074732986</v>
       </c>
       <c r="Q6" t="n">
-        <v>293.119492799726</v>
+        <v>291.7263558865685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_19</t>
+          <t>model_32_9_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9946177279720679</v>
+        <v>0.9887465769330175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7936324913365134</v>
+        <v>0.7623179070404387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.847241033601088</v>
+        <v>0.9689668783390688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9960721752196735</v>
+        <v>0.9662229495658152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9698174056512368</v>
+        <v>0.9723201003728659</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03599127783386526</v>
+        <v>0.07525169186616089</v>
       </c>
       <c r="H7" t="n">
-        <v>1.379980480667738</v>
+        <v>1.589381250045992</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2029237749058763</v>
+        <v>0.1287763749189745</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02166953407683445</v>
+        <v>0.2184380384239866</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1122966544913554</v>
+        <v>0.1736071340117549</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09871653024015251</v>
+        <v>0.1749458380006566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1897136732917932</v>
+        <v>0.2743204182450896</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001987300441083</v>
+        <v>1.004155110055501</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1977901771252679</v>
+        <v>0.2859988063713327</v>
       </c>
       <c r="P7" t="n">
-        <v>184.6489573045476</v>
+        <v>183.1738337846693</v>
       </c>
       <c r="Q7" t="n">
-        <v>293.1289057178174</v>
+        <v>291.6537821979391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_18</t>
+          <t>model_32_9_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9946456281083937</v>
+        <v>0.9858537441339097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7935479505707709</v>
+        <v>0.7623137899680381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8481183419652738</v>
+        <v>0.9646275135815846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9960872643610329</v>
+        <v>0.9987511313754317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.969985209623498</v>
+        <v>0.9876545951439857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03580470949378628</v>
+        <v>0.09459607811406461</v>
       </c>
       <c r="H8" t="n">
-        <v>1.380545805157533</v>
+        <v>1.589408780928092</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2017583655736859</v>
+        <v>0.1467831893485866</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02158628834130284</v>
+        <v>0.008076501917522922</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1116723269574944</v>
+        <v>0.07742984563305479</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0998042328763529</v>
+        <v>0.1776491366092177</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1892213240990198</v>
+        <v>0.3075647543429914</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001976998852285</v>
+        <v>1.005223232935172</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1972768676080547</v>
+        <v>0.3206584226821849</v>
       </c>
       <c r="P8" t="n">
-        <v>184.6593516882434</v>
+        <v>182.7162785227034</v>
       </c>
       <c r="Q8" t="n">
-        <v>293.1393001015132</v>
+        <v>291.1962269359732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_17</t>
+          <t>model_32_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9946762642076806</v>
+        <v>0.9881962498871293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7934536201229393</v>
+        <v>0.7614403314277074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8490901116694269</v>
+        <v>0.9679032332071624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9961038593923541</v>
+        <v>0.9597301500821103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9701709932778325</v>
+        <v>0.9686208415113498</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03559984575678882</v>
+        <v>0.07893173135603847</v>
       </c>
       <c r="H9" t="n">
-        <v>1.381176593296534</v>
+        <v>1.59524960220919</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2004674745618222</v>
+        <v>0.1331901224556766</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02149473471637511</v>
+        <v>0.2604273289295129</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1109811046390986</v>
+        <v>0.1968087256925947</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1010109394453214</v>
+        <v>0.1749062539022186</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1886792138969972</v>
+        <v>0.280947915735352</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001965687061779</v>
+        <v>1.004358307733983</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1967116786524092</v>
+        <v>0.2929084501505667</v>
       </c>
       <c r="P9" t="n">
-        <v>184.670827947616</v>
+        <v>183.0783439203336</v>
       </c>
       <c r="Q9" t="n">
-        <v>293.1507763608859</v>
+        <v>291.5582923336034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_16</t>
+          <t>model_32_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9947098055320394</v>
+        <v>0.9875473075776614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7933484136297907</v>
+        <v>0.7604965727763494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8501641699488558</v>
+        <v>0.9666746969404689</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9961221923974425</v>
+        <v>0.953394046113181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9703763266208263</v>
+        <v>0.9649478315930005</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03537555476635832</v>
+        <v>0.08327121156755447</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38188010960065</v>
+        <v>1.60156052065643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1990407042342367</v>
+        <v>0.138288109329503</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02139359281195919</v>
+        <v>0.3014032609434758</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1102171462063911</v>
+        <v>0.2198456851364894</v>
       </c>
       <c r="L10" t="n">
-        <v>0.10235005414594</v>
+        <v>0.1748836083009795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1880839035280752</v>
+        <v>0.2885675164802069</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001953302572785</v>
+        <v>1.004597917202094</v>
       </c>
       <c r="O10" t="n">
-        <v>0.19609102468862</v>
+        <v>0.300852433073878</v>
       </c>
       <c r="P10" t="n">
-        <v>184.683468481401</v>
+        <v>182.9713047779434</v>
       </c>
       <c r="Q10" t="n">
-        <v>293.1634168946708</v>
+        <v>291.4512531912133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_15</t>
+          <t>model_32_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.994746473506428</v>
+        <v>0.9868385774886685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.793230967054637</v>
+        <v>0.7595222142042931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8513512100110299</v>
+        <v>0.9653491123624766</v>
       </c>
       <c r="E11" t="n">
-        <v>0.996142345625233</v>
+        <v>0.947290902010684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9706031777118947</v>
+        <v>0.9613628203994218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03513035585278153</v>
+        <v>0.08801049293605137</v>
       </c>
       <c r="H11" t="n">
-        <v>1.382665475389495</v>
+        <v>1.608076060914279</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1974638498206512</v>
+        <v>0.1437888120453776</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02128240886644573</v>
+        <v>0.3408726287192696</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1093731293435485</v>
+        <v>0.2423307203823236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1038361119864419</v>
+        <v>0.1748629212433786</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1874309362212693</v>
+        <v>0.296665624796759</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001939763628396</v>
+        <v>1.00485960215803</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1954102592117346</v>
+        <v>0.309295294626861</v>
       </c>
       <c r="P11" t="n">
-        <v>184.6973793663152</v>
+        <v>182.8605984674051</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.177327779585</v>
+        <v>291.3405468806749</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_14</t>
+          <t>model_32_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99478647470401</v>
+        <v>0.9860996586231936</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7930997696448014</v>
+        <v>0.7585438736396002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8526622504161407</v>
+        <v>0.9639778184079196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9961644769586011</v>
+        <v>0.9414732995210049</v>
       </c>
       <c r="F12" t="n">
-        <v>0.970853632503948</v>
+        <v>0.9579098849201404</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03486286766036117</v>
+        <v>0.09295164679189133</v>
       </c>
       <c r="H12" t="n">
-        <v>1.383542793073174</v>
+        <v>1.614618228775225</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1957222743548648</v>
+        <v>0.1494791923540549</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02116031185107191</v>
+        <v>0.3784953832179828</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1084412931029684</v>
+        <v>0.2639873824569907</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1054845291641466</v>
+        <v>0.1748597500628085</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1867160080452696</v>
+        <v>0.3048797251243371</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001924993955442</v>
+        <v>1.005132433739129</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1946648950631772</v>
+        <v>0.3178590862109158</v>
       </c>
       <c r="P12" t="n">
-        <v>184.7126659601433</v>
+        <v>182.7513516960134</v>
       </c>
       <c r="Q12" t="n">
-        <v>293.1926143734131</v>
+        <v>291.2313001092832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_13</t>
+          <t>model_32_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9948300509190844</v>
+        <v>0.9853526540826093</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7929532013301037</v>
+        <v>0.7575810673035505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8541109205593397</v>
+        <v>0.9625993909356502</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9961887741948112</v>
+        <v>0.9359733200049838</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9711302633023494</v>
+        <v>0.9546183713385734</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03457147330950899</v>
+        <v>0.09794686959441806</v>
       </c>
       <c r="H13" t="n">
-        <v>1.384522896068443</v>
+        <v>1.621056519177705</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1937978726586417</v>
+        <v>0.1551991742143091</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02102626570149227</v>
+        <v>0.4140640525188366</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1074120670254882</v>
+        <v>0.2846316133665729</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1073166008123186</v>
+        <v>0.1748549107160309</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1859340563466225</v>
+        <v>0.3129646459177427</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00190890427603</v>
+        <v>1.005408250800267</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1938496540618556</v>
+        <v>0.32628819882059</v>
       </c>
       <c r="P13" t="n">
-        <v>184.7294528156098</v>
+        <v>182.6466601886442</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.2094012288796</v>
+        <v>291.1266086019141</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9948773123704694</v>
+        <v>0.9846138032087037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7927893373559251</v>
+        <v>0.7566477128616645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8557074419333599</v>
+        <v>0.9612417124407225</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9962154597932344</v>
+        <v>0.9308087434109836</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9714350580400312</v>
+        <v>0.9515066328510123</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03425543576647851</v>
+        <v>0.1028875687903201</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3856186552183</v>
+        <v>1.627297864628298</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1916770665837428</v>
+        <v>0.160833055226748</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02087904312494339</v>
+        <v>0.4474636527202226</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1062780548543431</v>
+        <v>0.304148302657237</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1093500754972756</v>
+        <v>0.1756603110802104</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1850822405485694</v>
+        <v>0.3207609215448791</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00189145389398</v>
+        <v>1.005681057276786</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1929615747017776</v>
+        <v>0.334416378041689</v>
       </c>
       <c r="P14" t="n">
-        <v>184.7478200367129</v>
+        <v>182.5482369041723</v>
       </c>
       <c r="Q14" t="n">
-        <v>293.2277684499827</v>
+        <v>291.0281853174421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_11</t>
+          <t>model_32_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9949284864329688</v>
+        <v>0.9838949134753356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7926060234990167</v>
+        <v>0.7557535272237234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8574685211617129</v>
+        <v>0.9599249498631842</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9962446129925802</v>
+        <v>0.9259865742228276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9717710596627189</v>
+        <v>0.9485849426011603</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03391323457491049</v>
+        <v>0.1076947877475355</v>
       </c>
       <c r="H15" t="n">
-        <v>1.386844475823528</v>
+        <v>1.633277288106557</v>
       </c>
       <c r="I15" t="n">
-        <v>0.189337663186678</v>
+        <v>0.1662971497905193</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02071820696701794</v>
+        <v>0.478648885440938</v>
       </c>
       <c r="K15" t="n">
-        <v>0.105027935076848</v>
+        <v>0.3224730176157287</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1116072579909676</v>
+        <v>0.1783095638773405</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1841554630601832</v>
+        <v>0.32816884030562</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001872558855519</v>
+        <v>1.00594649348603</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1919953423770168</v>
+        <v>0.3421396672405805</v>
       </c>
       <c r="P15" t="n">
-        <v>184.7678998806846</v>
+        <v>182.4569081840424</v>
       </c>
       <c r="Q15" t="n">
-        <v>293.2478482939545</v>
+        <v>290.9368565973123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_10</t>
+          <t>model_32_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9949836313717935</v>
+        <v>0.9832041890179702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7924007849809646</v>
+        <v>0.7549048030412406</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8594074258103642</v>
+        <v>0.958662944886242</v>
       </c>
       <c r="E16" t="n">
-        <v>0.996276392572937</v>
+        <v>0.9215053143899742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9721407538330784</v>
+        <v>0.9458571500275118</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03354448011507084</v>
+        <v>0.1123136653744313</v>
       </c>
       <c r="H16" t="n">
-        <v>1.38821690673878</v>
+        <v>1.638952710622835</v>
       </c>
       <c r="I16" t="n">
-        <v>0.186762037940174</v>
+        <v>0.1715340198623082</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02054288124909426</v>
+        <v>0.5076294386560289</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1036524595946341</v>
+        <v>0.3395816147302008</v>
       </c>
       <c r="L16" t="n">
-        <v>0.114115261178222</v>
+        <v>0.1806930525146759</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1831515222843393</v>
+        <v>0.3351323102513861</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001852197647338</v>
+        <v>1.006201530208749</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1909486617639014</v>
+        <v>0.3493995865183078</v>
       </c>
       <c r="P16" t="n">
-        <v>184.7897659124442</v>
+        <v>182.3729194766294</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.269714325714</v>
+        <v>290.8528678898993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_9</t>
+          <t>model_32_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9950427811527572</v>
+        <v>0.9825471068915466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7921708937237014</v>
+        <v>0.7541053059619971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8615391909889151</v>
+        <v>0.9574647939924944</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9963110932187365</v>
+        <v>0.9173578293383068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9725470430946633</v>
+        <v>0.9433225320293296</v>
       </c>
       <c r="G17" t="n">
-        <v>0.033148945257406</v>
+        <v>0.1167075765794119</v>
       </c>
       <c r="H17" t="n">
-        <v>1.38975419063465</v>
+        <v>1.644298951273081</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1839302183262942</v>
+        <v>0.1765059182871129</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0203514402178123</v>
+        <v>0.5344514520477646</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1021408292720533</v>
+        <v>0.3554786292572219</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1168934293352123</v>
+        <v>0.1828485940454384</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1820685180293562</v>
+        <v>0.3416249062633049</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001830357728213</v>
+        <v>1.006444145147737</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1898195517756558</v>
+        <v>0.3561685857839806</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8134887602585</v>
+        <v>182.2961676364748</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.2934371735283</v>
+        <v>290.7761160497446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_8</t>
+          <t>model_32_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9951059202832607</v>
+        <v>0.9819269924902521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7919131405060897</v>
+        <v>0.7533569158925548</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8638818170744068</v>
+        <v>0.9563361072526715</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9963486910597132</v>
+        <v>0.913531920969304</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9729931231704941</v>
+        <v>0.9409766837397304</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03272673360100049</v>
+        <v>0.120854284436232</v>
       </c>
       <c r="H18" t="n">
-        <v>1.391477787587663</v>
+        <v>1.649303439113461</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1808182927898281</v>
+        <v>0.1811895652744056</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02014401556375399</v>
+        <v>0.5591938113885628</v>
       </c>
       <c r="K18" t="n">
-        <v>0.100481154176791</v>
+        <v>0.3701916883314842</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1199823812804038</v>
+        <v>0.1847837121809285</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1809053166742219</v>
+        <v>0.3476410281256112</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001807044818488</v>
+        <v>1.006673110465138</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1886068305306746</v>
+        <v>0.3624408264090543</v>
       </c>
       <c r="P18" t="n">
-        <v>184.8391259875376</v>
+        <v>182.2263394398956</v>
       </c>
       <c r="Q18" t="n">
-        <v>293.3190744008074</v>
+        <v>290.7062878531653</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_7</t>
+          <t>model_32_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9951729205742705</v>
+        <v>0.981345562144562</v>
       </c>
       <c r="C19" t="n">
-        <v>0.79162389391316</v>
+        <v>0.7526598324953283</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8664528575225535</v>
+        <v>0.9552792320048635</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9963894992712961</v>
+        <v>0.9100130935792494</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9734823594085521</v>
+        <v>0.9388129168558507</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03227870234650958</v>
+        <v>0.1247423118351016</v>
       </c>
       <c r="H19" t="n">
-        <v>1.393411980886443</v>
+        <v>1.653964839000489</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1774029434622396</v>
+        <v>0.1855752202091989</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01991887952002386</v>
+        <v>0.5819502611897036</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0986609132738715</v>
+        <v>0.3837627406994512</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1234057762570476</v>
+        <v>0.1865269669587042</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1796627461287108</v>
+        <v>0.3531887764851845</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0017823062495</v>
+        <v>1.006887792438931</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1873113611845655</v>
+        <v>0.3682247539017169</v>
       </c>
       <c r="P19" t="n">
-        <v>184.8666952726214</v>
+        <v>182.1630103496519</v>
       </c>
       <c r="Q19" t="n">
-        <v>293.3466436858912</v>
+        <v>290.6429587629218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_6</t>
+          <t>model_32_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9952434453366212</v>
+        <v>0.9808033982713863</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7912990394244797</v>
+        <v>0.7520134677794954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8692698840348887</v>
+        <v>0.9542950063489264</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9964335453277053</v>
+        <v>0.9067848953255653</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9740179092661281</v>
+        <v>0.9368230179143665</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0318071029359343</v>
+        <v>0.1283677641514631</v>
       </c>
       <c r="H20" t="n">
-        <v>1.395584284348066</v>
+        <v>1.6582870828315</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1736608282373945</v>
+        <v>0.1896594052763236</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01967588051327269</v>
+        <v>0.6028271964198104</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09666835900155885</v>
+        <v>0.3962433008480671</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1272022154876916</v>
+        <v>0.1880902880998646</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1783454595327122</v>
+        <v>0.3582844737795138</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001756266337247</v>
+        <v>1.007087976022873</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1859379949710162</v>
+        <v>0.3735373855794135</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8961313027451</v>
+        <v>182.105711954514</v>
       </c>
       <c r="Q20" t="n">
-        <v>293.3760797160149</v>
+        <v>290.5856603677839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_5</t>
+          <t>model_32_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.995316962714778</v>
+        <v>0.9803001056952111</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7909338238645656</v>
+        <v>0.7514163332829102</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8723506784006195</v>
+        <v>0.9533821494563648</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9964809303135385</v>
+        <v>0.9038297728102418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9746030245606451</v>
+        <v>0.9349975134946815</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03131549188968318</v>
+        <v>0.1317332839257959</v>
       </c>
       <c r="H21" t="n">
-        <v>1.398026482478874</v>
+        <v>1.662280123959716</v>
       </c>
       <c r="I21" t="n">
-        <v>0.169568325930392</v>
+        <v>0.1934474354567317</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01941446086686091</v>
+        <v>0.6219381358669245</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09449139272401719</v>
+        <v>0.4076927856618281</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1314165106603138</v>
+        <v>0.1895060004429371</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1769618373821971</v>
+        <v>0.3629508009714207</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001729121459159</v>
+        <v>1.007273807127922</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1844954691610609</v>
+        <v>0.3784023679805087</v>
       </c>
       <c r="P21" t="n">
-        <v>184.927284710661</v>
+        <v>182.0539519536676</v>
       </c>
       <c r="Q21" t="n">
-        <v>293.4072331239308</v>
+        <v>290.5339003669375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_4</t>
+          <t>model_32_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.99539271624562</v>
+        <v>0.9798347436108161</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7905227526270318</v>
+        <v>0.7508664201485705</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8757143602037399</v>
+        <v>0.9525390922505925</v>
       </c>
       <c r="E22" t="n">
-        <v>0.996531650216451</v>
+        <v>0.9011298008942382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9752411117433056</v>
+        <v>0.9333266334486047</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03080892768013054</v>
+        <v>0.1348451623269404</v>
       </c>
       <c r="H22" t="n">
-        <v>1.400775317737072</v>
+        <v>1.665957395621163</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1651000382405621</v>
+        <v>0.1969458218580376</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01913464271661109</v>
+        <v>0.6393990023887322</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09211734047858658</v>
+        <v>0.4181724730878787</v>
       </c>
       <c r="L22" t="n">
-        <v>0.136088104018012</v>
+        <v>0.1907800630814857</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1755247209943105</v>
+        <v>0.3672126935809006</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001701150924694</v>
+        <v>1.007445633128314</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1829971717533009</v>
+        <v>0.3828456981817081</v>
       </c>
       <c r="P22" t="n">
-        <v>184.9599015425187</v>
+        <v>182.0072562090314</v>
       </c>
       <c r="Q22" t="n">
-        <v>293.4398499557885</v>
+        <v>290.4872046223012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_3</t>
+          <t>model_32_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9954695392185372</v>
+        <v>0.979405860234284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7900595871597714</v>
+        <v>0.7503613239912627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8793780664530203</v>
+        <v>0.9517623902913991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.996585540078106</v>
+        <v>0.8986673322263274</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9759351100271374</v>
+        <v>0.9318001693353452</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0302952121064956</v>
+        <v>0.137713107440637</v>
       </c>
       <c r="H23" t="n">
-        <v>1.403872507349323</v>
+        <v>1.669334975950835</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1602332005041193</v>
+        <v>0.2001688576773222</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01883733612610865</v>
+        <v>0.6553239223738878</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08953526669803236</v>
+        <v>0.427746390025605</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1412695813164253</v>
+        <v>0.1919246861509543</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1740551984472041</v>
+        <v>0.3710971671148097</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001672785519309</v>
+        <v>1.007603990067341</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1814650885890332</v>
+        <v>0.3868955417959244</v>
       </c>
       <c r="P23" t="n">
-        <v>184.99353119048</v>
+        <v>181.965165378785</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.4734796037498</v>
+        <v>290.4451137920548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_2</t>
+          <t>model_32_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.995545909172222</v>
+        <v>0.9790117454899911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7895370405160557</v>
+        <v>0.7498985764392607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8833601896731941</v>
+        <v>0.9510493478469186</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9966426103059656</v>
+        <v>0.8964246407302949</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9766883090697852</v>
+        <v>0.9304080614858306</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02978452587455418</v>
+        <v>0.1403485545504552</v>
       </c>
       <c r="H24" t="n">
-        <v>1.407366779161956</v>
+        <v>1.672429370961828</v>
       </c>
       <c r="I24" t="n">
-        <v>0.154943380240032</v>
+        <v>0.2031277292393521</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01852248367811474</v>
+        <v>0.6698275313298575</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08673293195907336</v>
+        <v>0.4364776302846048</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1470130550672893</v>
+        <v>0.1929585993867548</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1725819395955271</v>
+        <v>0.3746312247403508</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001644587382564</v>
+        <v>1.007749509357542</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1799291100579741</v>
+        <v>0.3905800515710927</v>
       </c>
       <c r="P24" t="n">
-        <v>185.0275325725812</v>
+        <v>181.9272525502393</v>
       </c>
       <c r="Q24" t="n">
-        <v>293.507480985851</v>
+        <v>290.4072009635091</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_1</t>
+          <t>model_32_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9956196136211274</v>
+        <v>0.9786503908525761</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7889467858876922</v>
+        <v>0.7494753918773996</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8876739953947097</v>
+        <v>0.9503958245832708</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9967024362081224</v>
+        <v>0.8943846220046193</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9775027634627705</v>
+        <v>0.9291401317303083</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02929166388534565</v>
+        <v>0.1427649346747343</v>
       </c>
       <c r="H25" t="n">
-        <v>1.411313814579695</v>
+        <v>1.675259208075579</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1492129556249912</v>
+        <v>0.2058396174514796</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01819242836812297</v>
+        <v>0.6830204443597586</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08370269199655707</v>
+        <v>0.4444300309056191</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1533809389108525</v>
+        <v>0.1938869306292645</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1711480759031361</v>
+        <v>0.3778424733599099</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001617373432199</v>
+        <v>1.00788293260828</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1784342038196909</v>
+        <v>0.3939280096925876</v>
       </c>
       <c r="P25" t="n">
-        <v>185.0609046249441</v>
+        <v>181.8931116294588</v>
       </c>
       <c r="Q25" t="n">
-        <v>293.5408530382139</v>
+        <v>290.3730600427286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_32_9_0</t>
+          <t>model_32_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9956879054304512</v>
+        <v>0.9783198777126173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7882791355870038</v>
+        <v>0.749089149980271</v>
       </c>
       <c r="D26" t="n">
-        <v>0.892334355723271</v>
+        <v>0.9497984404676549</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9967645033642394</v>
+        <v>0.8925314569115848</v>
       </c>
       <c r="F26" t="n">
-        <v>0.978380746248139</v>
+        <v>0.9279871063153827</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02883499624194298</v>
+        <v>0.1449750775635118</v>
       </c>
       <c r="H26" t="n">
-        <v>1.415778395214645</v>
+        <v>1.677842009420159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1430221706741184</v>
+        <v>0.208318548243029</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01785000821708526</v>
+        <v>0.6950049646951577</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08043608978342051</v>
+        <v>0.4516617564690933</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1604293326973598</v>
+        <v>0.1947201371843651</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1698087048473752</v>
+        <v>0.3807559291245664</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00159215799491</v>
+        <v>1.008004968229187</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1770378129652059</v>
+        <v>0.3969654973008303</v>
       </c>
       <c r="P26" t="n">
-        <v>185.092330964489</v>
+        <v>181.8623868604135</v>
       </c>
       <c r="Q26" t="n">
-        <v>293.5722793777588</v>
+        <v>290.3423352736834</v>
       </c>
     </row>
   </sheetData>
